--- a/题目二_信贷数据分析.xlsx
+++ b/题目二_信贷数据分析.xlsx
@@ -579,7 +579,7 @@
         <v>12</v>
       </c>
       <c r="O2" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P2" t="n">
         <v>3</v>
@@ -645,7 +645,7 @@
         <v>12</v>
       </c>
       <c r="O3" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P3" t="n">
         <v>3</v>
@@ -711,7 +711,7 @@
         <v>12</v>
       </c>
       <c r="O4" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P4" t="n">
         <v>3</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
@@ -777,7 +777,7 @@
         <v>12</v>
       </c>
       <c r="O5" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P5" t="n">
         <v>3</v>
@@ -843,7 +843,7 @@
         <v>10</v>
       </c>
       <c r="O6" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P6" t="n">
         <v>3</v>
@@ -909,7 +909,7 @@
         <v>12</v>
       </c>
       <c r="O7" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P7" t="n">
         <v>3</v>
@@ -975,7 +975,7 @@
         <v>8</v>
       </c>
       <c r="O8" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P8" t="n">
         <v>3</v>
@@ -1041,7 +1041,7 @@
         <v>12</v>
       </c>
       <c r="O9" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P9" t="n">
         <v>3</v>
@@ -1107,7 +1107,7 @@
         <v>11</v>
       </c>
       <c r="O10" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P10" t="n">
         <v>3</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11">
@@ -1173,7 +1173,7 @@
         <v>4</v>
       </c>
       <c r="O11" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P11" t="n">
         <v>3</v>
@@ -1188,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12">
@@ -1239,7 +1239,7 @@
         <v>12</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="P12" t="n">
         <v>3</v>
@@ -1305,7 +1305,7 @@
         <v>12</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="P13" t="n">
         <v>3</v>
@@ -1371,7 +1371,7 @@
         <v>3</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="P14" t="n">
         <v>3</v>
@@ -1437,7 +1437,7 @@
         <v>7</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="P15" t="n">
         <v>3</v>
@@ -1503,7 +1503,7 @@
         <v>10</v>
       </c>
       <c r="O16" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P16" t="n">
         <v>3</v>
@@ -1569,7 +1569,7 @@
         <v>12</v>
       </c>
       <c r="O17" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P17" t="n">
         <v>3</v>
@@ -1635,7 +1635,7 @@
         <v>12</v>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="P18" t="n">
         <v>3</v>
@@ -1701,7 +1701,7 @@
         <v>12</v>
       </c>
       <c r="O19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P19" t="n">
         <v>3</v>
@@ -1767,7 +1767,7 @@
         <v>12</v>
       </c>
       <c r="O20" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P20" t="n">
         <v>3</v>
@@ -1833,7 +1833,7 @@
         <v>10</v>
       </c>
       <c r="O21" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="P21" t="n">
         <v>3</v>
@@ -1899,7 +1899,7 @@
         <v>12</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="P22" t="n">
         <v>3</v>
@@ -1965,7 +1965,7 @@
         <v>12</v>
       </c>
       <c r="O23" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P23" t="n">
         <v>3</v>
@@ -2031,7 +2031,7 @@
         <v>12</v>
       </c>
       <c r="O24" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="P24" t="n">
         <v>3</v>
@@ -2097,7 +2097,7 @@
         <v>11</v>
       </c>
       <c r="O25" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="P25" t="n">
         <v>3</v>
@@ -2163,7 +2163,7 @@
         <v>7</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="P26" t="n">
         <v>3</v>
@@ -2229,7 +2229,7 @@
         <v>10</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="P27" t="n">
         <v>3</v>
@@ -2295,7 +2295,7 @@
         <v>11</v>
       </c>
       <c r="O28" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="P28" t="n">
         <v>3</v>
@@ -2361,7 +2361,7 @@
         <v>5</v>
       </c>
       <c r="O29" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="P29" t="n">
         <v>3</v>
@@ -2427,7 +2427,7 @@
         <v>7</v>
       </c>
       <c r="O30" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P30" t="n">
         <v>3</v>
@@ -2493,7 +2493,7 @@
         <v>9</v>
       </c>
       <c r="O31" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P31" t="n">
         <v>3</v>
@@ -2559,7 +2559,7 @@
         <v>12</v>
       </c>
       <c r="O32" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P32" t="n">
         <v>3</v>
@@ -2625,7 +2625,7 @@
         <v>10</v>
       </c>
       <c r="O33" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P33" t="n">
         <v>3</v>
@@ -2691,7 +2691,7 @@
         <v>12</v>
       </c>
       <c r="O34" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P34" t="n">
         <v>3</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35">
@@ -2757,7 +2757,7 @@
         <v>10</v>
       </c>
       <c r="O35" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="P35" t="n">
         <v>3</v>
@@ -2823,7 +2823,7 @@
         <v>8</v>
       </c>
       <c r="O36" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="P36" t="n">
         <v>3</v>
@@ -2889,7 +2889,7 @@
         <v>10</v>
       </c>
       <c r="O37" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P37" t="n">
         <v>3</v>
@@ -2955,7 +2955,7 @@
         <v>12</v>
       </c>
       <c r="O38" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="P38" t="n">
         <v>3</v>
@@ -3021,7 +3021,7 @@
         <v>9</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="P39" t="n">
         <v>3</v>
@@ -3087,7 +3087,7 @@
         <v>11</v>
       </c>
       <c r="O40" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="P40" t="n">
         <v>3</v>
@@ -3153,7 +3153,7 @@
         <v>12</v>
       </c>
       <c r="O41" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P41" t="n">
         <v>3</v>
@@ -3219,7 +3219,7 @@
         <v>12</v>
       </c>
       <c r="O42" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P42" t="n">
         <v>3</v>
@@ -3285,7 +3285,7 @@
         <v>12</v>
       </c>
       <c r="O43" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P43" t="n">
         <v>3</v>
@@ -3351,7 +3351,7 @@
         <v>10</v>
       </c>
       <c r="O44" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="P44" t="n">
         <v>3</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45">
@@ -3417,7 +3417,7 @@
         <v>12</v>
       </c>
       <c r="O45" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P45" t="n">
         <v>3</v>
@@ -3483,7 +3483,7 @@
         <v>6</v>
       </c>
       <c r="O46" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P46" t="n">
         <v>3</v>
@@ -3549,7 +3549,7 @@
         <v>11</v>
       </c>
       <c r="O47" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="P47" t="n">
         <v>3</v>
@@ -3615,7 +3615,7 @@
         <v>7</v>
       </c>
       <c r="O48" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="P48" t="n">
         <v>3</v>
@@ -3681,7 +3681,7 @@
         <v>12</v>
       </c>
       <c r="O49" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P49" t="n">
         <v>3</v>
@@ -3747,7 +3747,7 @@
         <v>12</v>
       </c>
       <c r="O50" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P50" t="n">
         <v>3</v>
@@ -3762,7 +3762,7 @@
         <v>0</v>
       </c>
       <c r="T50" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51">
@@ -3813,7 +3813,7 @@
         <v>12</v>
       </c>
       <c r="O51" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="P51" t="n">
         <v>3</v>
@@ -3879,7 +3879,7 @@
         <v>11</v>
       </c>
       <c r="O52" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="P52" t="n">
         <v>3</v>
@@ -3945,7 +3945,7 @@
         <v>11</v>
       </c>
       <c r="O53" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P53" t="n">
         <v>3</v>
@@ -3960,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="T53" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="54">
@@ -4011,7 +4011,7 @@
         <v>12</v>
       </c>
       <c r="O54" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="P54" t="n">
         <v>3</v>
@@ -4077,7 +4077,7 @@
         <v>9</v>
       </c>
       <c r="O55" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="P55" t="n">
         <v>3</v>
@@ -4143,7 +4143,7 @@
         <v>12</v>
       </c>
       <c r="O56" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="P56" t="n">
         <v>3</v>
@@ -4209,7 +4209,7 @@
         <v>11</v>
       </c>
       <c r="O57" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P57" t="n">
         <v>3</v>
@@ -4224,7 +4224,7 @@
         <v>0</v>
       </c>
       <c r="T57" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58">
@@ -4275,7 +4275,7 @@
         <v>12</v>
       </c>
       <c r="O58" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P58" t="n">
         <v>3</v>
@@ -4341,7 +4341,7 @@
         <v>12</v>
       </c>
       <c r="O59" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P59" t="n">
         <v>3</v>
@@ -4407,7 +4407,7 @@
         <v>7</v>
       </c>
       <c r="O60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P60" t="n">
         <v>3</v>
@@ -4473,7 +4473,7 @@
         <v>10</v>
       </c>
       <c r="O61" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="P61" t="n">
         <v>3</v>
@@ -4539,7 +4539,7 @@
         <v>3</v>
       </c>
       <c r="O62" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="P62" t="n">
         <v>3</v>
@@ -4605,7 +4605,7 @@
         <v>9</v>
       </c>
       <c r="O63" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P63" t="n">
         <v>3</v>
@@ -4671,7 +4671,7 @@
         <v>7</v>
       </c>
       <c r="O64" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="P64" t="n">
         <v>3</v>
@@ -4737,7 +4737,7 @@
         <v>12</v>
       </c>
       <c r="O65" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P65" t="n">
         <v>3</v>
@@ -4803,7 +4803,7 @@
         <v>12</v>
       </c>
       <c r="O66" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P66" t="n">
         <v>3</v>
@@ -4869,7 +4869,7 @@
         <v>7</v>
       </c>
       <c r="O67" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P67" t="n">
         <v>3</v>
@@ -4884,7 +4884,7 @@
         <v>0</v>
       </c>
       <c r="T67" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="68">
@@ -4935,7 +4935,7 @@
         <v>9</v>
       </c>
       <c r="O68" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="P68" t="n">
         <v>3</v>
@@ -5001,7 +5001,7 @@
         <v>10</v>
       </c>
       <c r="O69" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="P69" t="n">
         <v>3</v>
@@ -5067,7 +5067,7 @@
         <v>4</v>
       </c>
       <c r="O70" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="P70" t="n">
         <v>3</v>
@@ -5133,7 +5133,7 @@
         <v>12</v>
       </c>
       <c r="O71" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P71" t="n">
         <v>3</v>
@@ -5199,7 +5199,7 @@
         <v>12</v>
       </c>
       <c r="O72" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P72" t="n">
         <v>3</v>
@@ -5265,7 +5265,7 @@
         <v>12</v>
       </c>
       <c r="O73" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P73" t="n">
         <v>3</v>
@@ -5331,7 +5331,7 @@
         <v>12</v>
       </c>
       <c r="O74" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P74" t="n">
         <v>3</v>
@@ -5463,7 +5463,7 @@
         <v>11</v>
       </c>
       <c r="O76" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="P76" t="n">
         <v>3</v>
@@ -5529,7 +5529,7 @@
         <v>4</v>
       </c>
       <c r="O77" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="P77" t="n">
         <v>3</v>
@@ -5595,7 +5595,7 @@
         <v>10</v>
       </c>
       <c r="O78" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P78" t="n">
         <v>3</v>
@@ -5661,7 +5661,7 @@
         <v>12</v>
       </c>
       <c r="O79" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P79" t="n">
         <v>3</v>
@@ -5727,7 +5727,7 @@
         <v>6</v>
       </c>
       <c r="O80" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P80" t="n">
         <v>3</v>
@@ -5793,7 +5793,7 @@
         <v>11</v>
       </c>
       <c r="O81" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="P81" t="n">
         <v>3</v>
@@ -5859,7 +5859,7 @@
         <v>12</v>
       </c>
       <c r="O82" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="P82" t="n">
         <v>3</v>
@@ -5925,7 +5925,7 @@
         <v>10</v>
       </c>
       <c r="O83" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P83" t="n">
         <v>3</v>
@@ -5991,7 +5991,7 @@
         <v>5</v>
       </c>
       <c r="O84" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="P84" t="n">
         <v>3</v>
@@ -6057,7 +6057,7 @@
         <v>10</v>
       </c>
       <c r="O85" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P85" t="n">
         <v>3</v>
@@ -6123,7 +6123,7 @@
         <v>11</v>
       </c>
       <c r="O86" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P86" t="n">
         <v>3</v>
@@ -6189,7 +6189,7 @@
         <v>12</v>
       </c>
       <c r="O87" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="P87" t="n">
         <v>3</v>
@@ -6255,7 +6255,7 @@
         <v>9</v>
       </c>
       <c r="O88" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="P88" t="n">
         <v>3</v>
@@ -6321,7 +6321,7 @@
         <v>12</v>
       </c>
       <c r="O89" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P89" t="n">
         <v>3</v>
@@ -6336,7 +6336,7 @@
         <v>0</v>
       </c>
       <c r="T89" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="90">
@@ -6387,7 +6387,7 @@
         <v>12</v>
       </c>
       <c r="O90" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="P90" t="n">
         <v>3</v>
@@ -6453,7 +6453,7 @@
         <v>12</v>
       </c>
       <c r="O91" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="P91" t="n">
         <v>3</v>
@@ -6468,7 +6468,7 @@
         <v>0</v>
       </c>
       <c r="T91" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="92">
@@ -6519,7 +6519,7 @@
         <v>12</v>
       </c>
       <c r="O92" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="P92" t="n">
         <v>3</v>
@@ -6585,7 +6585,7 @@
         <v>5</v>
       </c>
       <c r="O93" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="P93" t="n">
         <v>3</v>
@@ -6651,7 +6651,7 @@
         <v>12</v>
       </c>
       <c r="O94" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="P94" t="n">
         <v>3</v>
@@ -6717,7 +6717,7 @@
         <v>12</v>
       </c>
       <c r="O95" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P95" t="n">
         <v>3</v>
@@ -6783,7 +6783,7 @@
         <v>8</v>
       </c>
       <c r="O96" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="P96" t="n">
         <v>3</v>
@@ -6849,7 +6849,7 @@
         <v>10</v>
       </c>
       <c r="O97" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P97" t="n">
         <v>3</v>
@@ -6915,7 +6915,7 @@
         <v>9</v>
       </c>
       <c r="O98" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P98" t="n">
         <v>3</v>
@@ -6981,7 +6981,7 @@
         <v>10</v>
       </c>
       <c r="O99" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P99" t="n">
         <v>3</v>
@@ -7047,7 +7047,7 @@
         <v>12</v>
       </c>
       <c r="O100" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="P100" t="n">
         <v>3</v>
@@ -7113,7 +7113,7 @@
         <v>8</v>
       </c>
       <c r="O101" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="P101" t="n">
         <v>3</v>
@@ -7179,7 +7179,7 @@
         <v>6</v>
       </c>
       <c r="O102" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P102" t="n">
         <v>3</v>
@@ -7194,7 +7194,7 @@
         <v>0</v>
       </c>
       <c r="T102" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="103">
@@ -7245,7 +7245,7 @@
         <v>12</v>
       </c>
       <c r="O103" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="P103" t="n">
         <v>3</v>
@@ -7311,7 +7311,7 @@
         <v>9</v>
       </c>
       <c r="O104" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="P104" t="n">
         <v>3</v>
@@ -7377,7 +7377,7 @@
         <v>10</v>
       </c>
       <c r="O105" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P105" t="n">
         <v>3</v>
@@ -7443,7 +7443,7 @@
         <v>12</v>
       </c>
       <c r="O106" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P106" t="n">
         <v>3</v>
@@ -7458,7 +7458,7 @@
         <v>0</v>
       </c>
       <c r="T106" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="107">
@@ -7509,7 +7509,7 @@
         <v>12</v>
       </c>
       <c r="O107" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="P107" t="n">
         <v>3</v>
@@ -7575,7 +7575,7 @@
         <v>11</v>
       </c>
       <c r="O108" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="P108" t="n">
         <v>3</v>
@@ -7590,7 +7590,7 @@
         <v>0</v>
       </c>
       <c r="T108" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="109">
@@ -7641,7 +7641,7 @@
         <v>7</v>
       </c>
       <c r="O109" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="P109" t="n">
         <v>3</v>
@@ -7707,7 +7707,7 @@
         <v>2</v>
       </c>
       <c r="O110" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P110" t="n">
         <v>3</v>
@@ -7773,7 +7773,7 @@
         <v>4</v>
       </c>
       <c r="O111" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="P111" t="n">
         <v>3</v>
@@ -7839,7 +7839,7 @@
         <v>6</v>
       </c>
       <c r="O112" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="P112" t="n">
         <v>3</v>
@@ -7905,7 +7905,7 @@
         <v>12</v>
       </c>
       <c r="O113" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P113" t="n">
         <v>3</v>
@@ -7971,7 +7971,7 @@
         <v>10</v>
       </c>
       <c r="O114" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P114" t="n">
         <v>3</v>
@@ -8037,7 +8037,7 @@
         <v>7</v>
       </c>
       <c r="O115" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P115" t="n">
         <v>3</v>
@@ -8103,7 +8103,7 @@
         <v>12</v>
       </c>
       <c r="O116" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P116" t="n">
         <v>3</v>
@@ -8169,7 +8169,7 @@
         <v>8</v>
       </c>
       <c r="O117" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P117" t="n">
         <v>3</v>
@@ -8235,7 +8235,7 @@
         <v>10</v>
       </c>
       <c r="O118" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P118" t="n">
         <v>3</v>
@@ -8250,7 +8250,7 @@
         <v>0</v>
       </c>
       <c r="T118" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="119">
@@ -8301,7 +8301,7 @@
         <v>12</v>
       </c>
       <c r="O119" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P119" t="n">
         <v>3</v>
@@ -8367,7 +8367,7 @@
         <v>12</v>
       </c>
       <c r="O120" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P120" t="n">
         <v>3</v>
@@ -8433,7 +8433,7 @@
         <v>9</v>
       </c>
       <c r="O121" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="P121" t="n">
         <v>3</v>
@@ -8499,7 +8499,7 @@
         <v>12</v>
       </c>
       <c r="O122" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P122" t="n">
         <v>3</v>
@@ -8565,7 +8565,7 @@
         <v>5</v>
       </c>
       <c r="O123" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="P123" t="n">
         <v>3</v>
@@ -8580,7 +8580,7 @@
         <v>0</v>
       </c>
       <c r="T123" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="124">
@@ -8631,7 +8631,7 @@
         <v>11</v>
       </c>
       <c r="O124" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="P124" t="n">
         <v>3</v>
@@ -8697,7 +8697,7 @@
         <v>9</v>
       </c>
       <c r="O125" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P125" t="n">
         <v>3</v>
@@ -8712,7 +8712,7 @@
         <v>0</v>
       </c>
       <c r="T125" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="126">
@@ -8763,7 +8763,7 @@
         <v>10</v>
       </c>
       <c r="O126" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="P126" t="n">
         <v>3</v>
@@ -8829,7 +8829,7 @@
         <v>2</v>
       </c>
       <c r="O127" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="P127" t="n">
         <v>3</v>
@@ -8895,7 +8895,7 @@
         <v>12</v>
       </c>
       <c r="O128" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P128" t="n">
         <v>3</v>
@@ -8910,7 +8910,7 @@
         <v>0</v>
       </c>
       <c r="T128" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="129">
@@ -9027,7 +9027,7 @@
         <v>8</v>
       </c>
       <c r="O130" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P130" t="n">
         <v>3</v>
@@ -9093,7 +9093,7 @@
         <v>11</v>
       </c>
       <c r="O131" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="P131" t="n">
         <v>3</v>
@@ -9159,7 +9159,7 @@
         <v>8</v>
       </c>
       <c r="O132" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="P132" t="n">
         <v>3</v>
@@ -9225,7 +9225,7 @@
         <v>10</v>
       </c>
       <c r="O133" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P133" t="n">
         <v>3</v>
@@ -9291,7 +9291,7 @@
         <v>11</v>
       </c>
       <c r="O134" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P134" t="n">
         <v>3</v>
@@ -9357,7 +9357,7 @@
         <v>9</v>
       </c>
       <c r="O135" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P135" t="n">
         <v>3</v>
@@ -9423,7 +9423,7 @@
         <v>12</v>
       </c>
       <c r="O136" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P136" t="n">
         <v>3</v>
@@ -9489,7 +9489,7 @@
         <v>12</v>
       </c>
       <c r="O137" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P137" t="n">
         <v>3</v>
@@ -9504,7 +9504,7 @@
         <v>0</v>
       </c>
       <c r="T137" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="138">
@@ -9555,7 +9555,7 @@
         <v>12</v>
       </c>
       <c r="O138" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P138" t="n">
         <v>3</v>
@@ -9687,7 +9687,7 @@
         <v>9</v>
       </c>
       <c r="O140" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P140" t="n">
         <v>3</v>
@@ -9753,7 +9753,7 @@
         <v>12</v>
       </c>
       <c r="O141" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="P141" t="n">
         <v>3</v>
@@ -9819,7 +9819,7 @@
         <v>12</v>
       </c>
       <c r="O142" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P142" t="n">
         <v>3</v>
@@ -9885,7 +9885,7 @@
         <v>12</v>
       </c>
       <c r="O143" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="P143" t="n">
         <v>3</v>
@@ -9951,7 +9951,7 @@
         <v>9</v>
       </c>
       <c r="O144" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="P144" t="n">
         <v>3</v>
@@ -10017,7 +10017,7 @@
         <v>4</v>
       </c>
       <c r="O145" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P145" t="n">
         <v>3</v>
@@ -10083,7 +10083,7 @@
         <v>7</v>
       </c>
       <c r="O146" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="P146" t="n">
         <v>3</v>
@@ -10149,7 +10149,7 @@
         <v>10</v>
       </c>
       <c r="O147" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P147" t="n">
         <v>3</v>
@@ -10164,7 +10164,7 @@
         <v>0</v>
       </c>
       <c r="T147" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="148">
@@ -10215,7 +10215,7 @@
         <v>12</v>
       </c>
       <c r="O148" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P148" t="n">
         <v>3</v>
@@ -10281,7 +10281,7 @@
         <v>12</v>
       </c>
       <c r="O149" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="P149" t="n">
         <v>3</v>
@@ -10296,7 +10296,7 @@
         <v>0</v>
       </c>
       <c r="T149" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="150">
@@ -10347,7 +10347,7 @@
         <v>12</v>
       </c>
       <c r="O150" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P150" t="n">
         <v>3</v>
@@ -10413,7 +10413,7 @@
         <v>11</v>
       </c>
       <c r="O151" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P151" t="n">
         <v>3</v>
@@ -10479,7 +10479,7 @@
         <v>4</v>
       </c>
       <c r="O152" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="P152" t="n">
         <v>3</v>
@@ -10545,7 +10545,7 @@
         <v>11</v>
       </c>
       <c r="O153" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="P153" t="n">
         <v>3</v>
@@ -10611,7 +10611,7 @@
         <v>8</v>
       </c>
       <c r="O154" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="P154" t="n">
         <v>3</v>
@@ -10677,7 +10677,7 @@
         <v>9</v>
       </c>
       <c r="O155" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P155" t="n">
         <v>3</v>
@@ -10743,7 +10743,7 @@
         <v>7</v>
       </c>
       <c r="O156" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="P156" t="n">
         <v>3</v>
@@ -10809,7 +10809,7 @@
         <v>9</v>
       </c>
       <c r="O157" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P157" t="n">
         <v>3</v>
@@ -10875,7 +10875,7 @@
         <v>12</v>
       </c>
       <c r="O158" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P158" t="n">
         <v>3</v>
@@ -10941,7 +10941,7 @@
         <v>9</v>
       </c>
       <c r="O159" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="P159" t="n">
         <v>3</v>
@@ -11007,7 +11007,7 @@
         <v>12</v>
       </c>
       <c r="O160" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P160" t="n">
         <v>3</v>
@@ -11073,7 +11073,7 @@
         <v>5</v>
       </c>
       <c r="O161" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="P161" t="n">
         <v>3</v>
@@ -11139,7 +11139,7 @@
         <v>10</v>
       </c>
       <c r="O162" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="P162" t="n">
         <v>3</v>
@@ -11205,7 +11205,7 @@
         <v>12</v>
       </c>
       <c r="O163" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P163" t="n">
         <v>3</v>
@@ -11271,7 +11271,7 @@
         <v>12</v>
       </c>
       <c r="O164" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P164" t="n">
         <v>3</v>
@@ -11337,7 +11337,7 @@
         <v>9</v>
       </c>
       <c r="O165" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P165" t="n">
         <v>3</v>
@@ -11403,7 +11403,7 @@
         <v>11</v>
       </c>
       <c r="O166" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P166" t="n">
         <v>3</v>
@@ -11469,7 +11469,7 @@
         <v>12</v>
       </c>
       <c r="O167" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P167" t="n">
         <v>3</v>
@@ -11535,7 +11535,7 @@
         <v>12</v>
       </c>
       <c r="O168" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="P168" t="n">
         <v>3</v>
@@ -11601,7 +11601,7 @@
         <v>4</v>
       </c>
       <c r="O169" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="P169" t="n">
         <v>3</v>
@@ -11616,7 +11616,7 @@
         <v>0</v>
       </c>
       <c r="T169" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="170">
@@ -11667,7 +11667,7 @@
         <v>8</v>
       </c>
       <c r="O170" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P170" t="n">
         <v>3</v>
@@ -11733,7 +11733,7 @@
         <v>6</v>
       </c>
       <c r="O171" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P171" t="n">
         <v>2</v>
@@ -11799,7 +11799,7 @@
         <v>10</v>
       </c>
       <c r="O172" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P172" t="n">
         <v>3</v>
@@ -11865,7 +11865,7 @@
         <v>9</v>
       </c>
       <c r="O173" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P173" t="n">
         <v>3</v>
@@ -11880,7 +11880,7 @@
         <v>0</v>
       </c>
       <c r="T173" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="174">
@@ -11931,7 +11931,7 @@
         <v>7</v>
       </c>
       <c r="O174" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="P174" t="n">
         <v>3</v>
@@ -11997,7 +11997,7 @@
         <v>7</v>
       </c>
       <c r="O175" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="P175" t="n">
         <v>3</v>
@@ -12012,7 +12012,7 @@
         <v>0</v>
       </c>
       <c r="T175" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="176">
@@ -12063,7 +12063,7 @@
         <v>12</v>
       </c>
       <c r="O176" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P176" t="n">
         <v>3</v>
@@ -12129,7 +12129,7 @@
         <v>12</v>
       </c>
       <c r="O177" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P177" t="n">
         <v>3</v>
@@ -12195,7 +12195,7 @@
         <v>5</v>
       </c>
       <c r="O178" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="P178" t="n">
         <v>3</v>
@@ -12210,7 +12210,7 @@
         <v>0</v>
       </c>
       <c r="T178" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="179">
@@ -12261,7 +12261,7 @@
         <v>10</v>
       </c>
       <c r="O179" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="P179" t="n">
         <v>3</v>
@@ -12327,7 +12327,7 @@
         <v>10</v>
       </c>
       <c r="O180" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="P180" t="n">
         <v>2</v>
@@ -12393,7 +12393,7 @@
         <v>6</v>
       </c>
       <c r="O181" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P181" t="n">
         <v>3</v>
@@ -12459,7 +12459,7 @@
         <v>12</v>
       </c>
       <c r="O182" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="P182" t="n">
         <v>3</v>
@@ -12525,7 +12525,7 @@
         <v>7</v>
       </c>
       <c r="O183" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="P183" t="n">
         <v>3</v>
@@ -12591,7 +12591,7 @@
         <v>10</v>
       </c>
       <c r="O184" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P184" t="n">
         <v>3</v>
@@ -12657,7 +12657,7 @@
         <v>6</v>
       </c>
       <c r="O185" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="P185" t="n">
         <v>2</v>
@@ -12672,7 +12672,7 @@
         <v>0</v>
       </c>
       <c r="T185" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="186">
@@ -12723,7 +12723,7 @@
         <v>11</v>
       </c>
       <c r="O186" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P186" t="n">
         <v>3</v>
@@ -12738,7 +12738,7 @@
         <v>0</v>
       </c>
       <c r="T186" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="187">
@@ -12789,7 +12789,7 @@
         <v>8</v>
       </c>
       <c r="O187" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P187" t="n">
         <v>3</v>
@@ -12855,7 +12855,7 @@
         <v>12</v>
       </c>
       <c r="O188" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P188" t="n">
         <v>3</v>
@@ -12921,7 +12921,7 @@
         <v>10</v>
       </c>
       <c r="O189" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P189" t="n">
         <v>3</v>
@@ -12987,7 +12987,7 @@
         <v>7</v>
       </c>
       <c r="O190" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P190" t="n">
         <v>3</v>
@@ -13053,7 +13053,7 @@
         <v>5</v>
       </c>
       <c r="O191" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P191" t="n">
         <v>3</v>
@@ -13119,7 +13119,7 @@
         <v>8</v>
       </c>
       <c r="O192" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="P192" t="n">
         <v>2</v>
@@ -13185,7 +13185,7 @@
         <v>12</v>
       </c>
       <c r="O193" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P193" t="n">
         <v>3</v>
@@ -13251,7 +13251,7 @@
         <v>11</v>
       </c>
       <c r="O194" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P194" t="n">
         <v>3</v>
@@ -13317,7 +13317,7 @@
         <v>8</v>
       </c>
       <c r="O195" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="P195" t="n">
         <v>2</v>
@@ -13383,7 +13383,7 @@
         <v>12</v>
       </c>
       <c r="O196" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="P196" t="n">
         <v>3</v>
@@ -13449,7 +13449,7 @@
         <v>9</v>
       </c>
       <c r="O197" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P197" t="n">
         <v>3</v>
@@ -13515,7 +13515,7 @@
         <v>3</v>
       </c>
       <c r="O198" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="P198" t="n">
         <v>2</v>
@@ -13530,7 +13530,7 @@
         <v>0</v>
       </c>
       <c r="T198" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="199">
@@ -13581,7 +13581,7 @@
         <v>12</v>
       </c>
       <c r="O199" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P199" t="n">
         <v>3</v>
@@ -13647,7 +13647,7 @@
         <v>10</v>
       </c>
       <c r="O200" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="P200" t="n">
         <v>3</v>
@@ -13713,7 +13713,7 @@
         <v>8</v>
       </c>
       <c r="O201" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="P201" t="n">
         <v>2</v>
@@ -13779,7 +13779,7 @@
         <v>11</v>
       </c>
       <c r="O202" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P202" t="n">
         <v>3</v>
@@ -13845,7 +13845,7 @@
         <v>12</v>
       </c>
       <c r="O203" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="P203" t="n">
         <v>3</v>
@@ -13911,7 +13911,7 @@
         <v>8</v>
       </c>
       <c r="O204" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P204" t="n">
         <v>3</v>
@@ -13977,7 +13977,7 @@
         <v>8</v>
       </c>
       <c r="O205" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P205" t="n">
         <v>3</v>
@@ -14043,7 +14043,7 @@
         <v>7</v>
       </c>
       <c r="O206" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="P206" t="n">
         <v>2</v>
@@ -14058,7 +14058,7 @@
         <v>0</v>
       </c>
       <c r="T206" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="207">
@@ -14109,7 +14109,7 @@
         <v>3</v>
       </c>
       <c r="O207" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P207" t="n">
         <v>3</v>
@@ -14175,7 +14175,7 @@
         <v>12</v>
       </c>
       <c r="O208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P208" t="n">
         <v>2</v>
@@ -14241,7 +14241,7 @@
         <v>6</v>
       </c>
       <c r="O209" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P209" t="n">
         <v>2</v>
@@ -14253,7 +14253,7 @@
         <v>0.1477272727272727</v>
       </c>
       <c r="S209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T209" t="n">
         <v>20</v>
@@ -14307,7 +14307,7 @@
         <v>5</v>
       </c>
       <c r="O210" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="P210" t="n">
         <v>3</v>
@@ -14373,7 +14373,7 @@
         <v>5</v>
       </c>
       <c r="O211" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="P211" t="n">
         <v>2</v>
@@ -14388,7 +14388,7 @@
         <v>0</v>
       </c>
       <c r="T211" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="212">
@@ -14439,7 +14439,7 @@
         <v>7</v>
       </c>
       <c r="O212" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="P212" t="n">
         <v>2</v>
@@ -14505,7 +14505,7 @@
         <v>8</v>
       </c>
       <c r="O213" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="P213" t="n">
         <v>2</v>
@@ -14571,7 +14571,7 @@
         <v>3</v>
       </c>
       <c r="O214" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P214" t="n">
         <v>2</v>
@@ -14637,7 +14637,7 @@
         <v>12</v>
       </c>
       <c r="O215" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P215" t="n">
         <v>3</v>
@@ -14652,7 +14652,7 @@
         <v>0</v>
       </c>
       <c r="T215" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="216">
@@ -14703,7 +14703,7 @@
         <v>4</v>
       </c>
       <c r="O216" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="P216" t="n">
         <v>2</v>
@@ -14715,7 +14715,7 @@
         <v>0.04878048780487805</v>
       </c>
       <c r="S216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T216" t="n">
         <v>20</v>
@@ -14769,7 +14769,7 @@
         <v>5</v>
       </c>
       <c r="O217" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P217" t="n">
         <v>2</v>
@@ -14784,7 +14784,7 @@
         <v>0</v>
       </c>
       <c r="T217" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="218">
@@ -14835,7 +14835,7 @@
         <v>8</v>
       </c>
       <c r="O218" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P218" t="n">
         <v>2</v>
@@ -14901,7 +14901,7 @@
         <v>3</v>
       </c>
       <c r="O219" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P219" t="n">
         <v>2</v>
@@ -14967,7 +14967,7 @@
         <v>10</v>
       </c>
       <c r="O220" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="P220" t="n">
         <v>2</v>
@@ -15033,7 +15033,7 @@
         <v>10</v>
       </c>
       <c r="O221" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P221" t="n">
         <v>2</v>
@@ -15099,7 +15099,7 @@
         <v>4</v>
       </c>
       <c r="O222" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="P222" t="n">
         <v>2</v>
@@ -15165,7 +15165,7 @@
         <v>5</v>
       </c>
       <c r="O223" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="P223" t="n">
         <v>2</v>
@@ -15231,7 +15231,7 @@
         <v>12</v>
       </c>
       <c r="O224" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P224" t="n">
         <v>2</v>
@@ -15246,7 +15246,7 @@
         <v>0</v>
       </c>
       <c r="T224" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="225">
@@ -15297,7 +15297,7 @@
         <v>3</v>
       </c>
       <c r="O225" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P225" t="n">
         <v>2</v>
@@ -15309,7 +15309,7 @@
         <v>0.2235294117647059</v>
       </c>
       <c r="S225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T225" t="n">
         <v>20</v>
@@ -15363,7 +15363,7 @@
         <v>12</v>
       </c>
       <c r="O226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P226" t="n">
         <v>2</v>
@@ -15378,7 +15378,7 @@
         <v>0</v>
       </c>
       <c r="T226" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="227">
@@ -15429,7 +15429,7 @@
         <v>0</v>
       </c>
       <c r="O227" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P227" t="n">
         <v>2</v>
@@ -15441,10 +15441,10 @@
         <v>0.05128205128205128</v>
       </c>
       <c r="S227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T227" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="228">
@@ -15495,7 +15495,7 @@
         <v>5</v>
       </c>
       <c r="O228" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P228" t="n">
         <v>2</v>
@@ -15561,7 +15561,7 @@
         <v>5</v>
       </c>
       <c r="O229" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P229" t="n">
         <v>2</v>
@@ -15627,7 +15627,7 @@
         <v>4</v>
       </c>
       <c r="O230" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="P230" t="n">
         <v>3</v>
@@ -15693,7 +15693,7 @@
         <v>9</v>
       </c>
       <c r="O231" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P231" t="n">
         <v>2</v>
@@ -15759,7 +15759,7 @@
         <v>6</v>
       </c>
       <c r="O232" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P232" t="n">
         <v>2</v>
@@ -15825,7 +15825,7 @@
         <v>9</v>
       </c>
       <c r="O233" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P233" t="n">
         <v>2</v>
@@ -15891,7 +15891,7 @@
         <v>2</v>
       </c>
       <c r="O234" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="P234" t="n">
         <v>2</v>
@@ -15957,7 +15957,7 @@
         <v>7</v>
       </c>
       <c r="O235" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P235" t="n">
         <v>2</v>
@@ -16023,7 +16023,7 @@
         <v>9</v>
       </c>
       <c r="O236" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P236" t="n">
         <v>2</v>
@@ -16089,7 +16089,7 @@
         <v>9</v>
       </c>
       <c r="O237" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P237" t="n">
         <v>2</v>
@@ -16155,7 +16155,7 @@
         <v>2</v>
       </c>
       <c r="O238" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="P238" t="n">
         <v>2</v>
@@ -16221,7 +16221,7 @@
         <v>8</v>
       </c>
       <c r="O239" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="P239" t="n">
         <v>2</v>
@@ -16287,7 +16287,7 @@
         <v>5</v>
       </c>
       <c r="O240" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P240" t="n">
         <v>2</v>
@@ -16353,7 +16353,7 @@
         <v>4</v>
       </c>
       <c r="O241" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="P241" t="n">
         <v>2</v>
@@ -16419,7 +16419,7 @@
         <v>11</v>
       </c>
       <c r="O242" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="P242" t="n">
         <v>2</v>
@@ -16485,7 +16485,7 @@
         <v>5</v>
       </c>
       <c r="O243" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="P243" t="n">
         <v>2</v>
@@ -16551,7 +16551,7 @@
         <v>1</v>
       </c>
       <c r="O244" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="P244" t="n">
         <v>2</v>
@@ -16566,7 +16566,7 @@
         <v>0</v>
       </c>
       <c r="T244" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="245">
@@ -16617,7 +16617,7 @@
         <v>4</v>
       </c>
       <c r="O245" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="P245" t="n">
         <v>2</v>
@@ -16683,7 +16683,7 @@
         <v>4</v>
       </c>
       <c r="O246" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="P246" t="n">
         <v>2</v>
@@ -16749,7 +16749,7 @@
         <v>7</v>
       </c>
       <c r="O247" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="P247" t="n">
         <v>2</v>
@@ -16815,7 +16815,7 @@
         <v>10</v>
       </c>
       <c r="O248" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P248" t="n">
         <v>2</v>
@@ -16881,7 +16881,7 @@
         <v>5</v>
       </c>
       <c r="O249" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="P249" t="n">
         <v>2</v>
@@ -16947,7 +16947,7 @@
         <v>12</v>
       </c>
       <c r="O250" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P250" t="n">
         <v>2</v>
@@ -17013,7 +17013,7 @@
         <v>2</v>
       </c>
       <c r="O251" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P251" t="n">
         <v>3</v>
@@ -17079,7 +17079,7 @@
         <v>10</v>
       </c>
       <c r="O252" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P252" t="n">
         <v>2</v>
@@ -17145,7 +17145,7 @@
         <v>9</v>
       </c>
       <c r="O253" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P253" t="n">
         <v>2</v>
@@ -17211,7 +17211,7 @@
         <v>5</v>
       </c>
       <c r="O254" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="P254" t="n">
         <v>2</v>
@@ -17277,7 +17277,7 @@
         <v>10</v>
       </c>
       <c r="O255" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P255" t="n">
         <v>2</v>
@@ -17343,7 +17343,7 @@
         <v>12</v>
       </c>
       <c r="O256" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="P256" t="n">
         <v>2</v>
@@ -17409,7 +17409,7 @@
         <v>7</v>
       </c>
       <c r="O257" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P257" t="n">
         <v>2</v>
@@ -17475,7 +17475,7 @@
         <v>5</v>
       </c>
       <c r="O258" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P258" t="n">
         <v>2</v>
@@ -17541,7 +17541,7 @@
         <v>2</v>
       </c>
       <c r="O259" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="P259" t="n">
         <v>3</v>
@@ -17607,7 +17607,7 @@
         <v>0</v>
       </c>
       <c r="O260" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P260" t="n">
         <v>2</v>
@@ -17673,7 +17673,7 @@
         <v>7</v>
       </c>
       <c r="O261" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="P261" t="n">
         <v>2</v>
@@ -17739,7 +17739,7 @@
         <v>2</v>
       </c>
       <c r="O262" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P262" t="n">
         <v>2</v>
@@ -17805,7 +17805,7 @@
         <v>7</v>
       </c>
       <c r="O263" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="P263" t="n">
         <v>1</v>
@@ -17871,7 +17871,7 @@
         <v>2</v>
       </c>
       <c r="O264" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P264" t="n">
         <v>2</v>
@@ -17886,7 +17886,7 @@
         <v>0</v>
       </c>
       <c r="T264" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="265">
@@ -17937,7 +17937,7 @@
         <v>3</v>
       </c>
       <c r="O265" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P265" t="n">
         <v>2</v>
@@ -17952,7 +17952,7 @@
         <v>0</v>
       </c>
       <c r="T265" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="266">
@@ -18003,7 +18003,7 @@
         <v>11</v>
       </c>
       <c r="O266" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="P266" t="n">
         <v>2</v>
@@ -18069,7 +18069,7 @@
         <v>1</v>
       </c>
       <c r="O267" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P267" t="n">
         <v>1</v>
@@ -18135,7 +18135,7 @@
         <v>0</v>
       </c>
       <c r="O268" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="P268" t="n">
         <v>2</v>
@@ -18150,7 +18150,7 @@
         <v>1</v>
       </c>
       <c r="T268" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="269">
@@ -18201,7 +18201,7 @@
         <v>10</v>
       </c>
       <c r="O269" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P269" t="n">
         <v>2</v>
@@ -18267,7 +18267,7 @@
         <v>9</v>
       </c>
       <c r="O270" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="P270" t="n">
         <v>2</v>
@@ -18333,7 +18333,7 @@
         <v>12</v>
       </c>
       <c r="O271" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="P271" t="n">
         <v>2</v>
@@ -18399,7 +18399,7 @@
         <v>3</v>
       </c>
       <c r="O272" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P272" t="n">
         <v>2</v>
@@ -18465,7 +18465,7 @@
         <v>8</v>
       </c>
       <c r="O273" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="P273" t="n">
         <v>2</v>
@@ -18531,7 +18531,7 @@
         <v>3</v>
       </c>
       <c r="O274" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P274" t="n">
         <v>2</v>
@@ -18597,7 +18597,7 @@
         <v>5</v>
       </c>
       <c r="O275" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P275" t="n">
         <v>2</v>
@@ -18663,7 +18663,7 @@
         <v>0</v>
       </c>
       <c r="O276" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P276" t="n">
         <v>2</v>
@@ -18729,7 +18729,7 @@
         <v>3</v>
       </c>
       <c r="O277" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="P277" t="n">
         <v>1</v>
@@ -18795,7 +18795,7 @@
         <v>7</v>
       </c>
       <c r="O278" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P278" t="n">
         <v>2</v>
@@ -18810,7 +18810,7 @@
         <v>0</v>
       </c>
       <c r="T278" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="279">
@@ -18861,7 +18861,7 @@
         <v>6</v>
       </c>
       <c r="O279" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P279" t="n">
         <v>1</v>
@@ -18927,7 +18927,7 @@
         <v>2</v>
       </c>
       <c r="O280" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="P280" t="n">
         <v>1</v>
@@ -18993,7 +18993,7 @@
         <v>5</v>
       </c>
       <c r="O281" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="P281" t="n">
         <v>2</v>
@@ -19059,7 +19059,7 @@
         <v>1</v>
       </c>
       <c r="O282" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P282" t="n">
         <v>2</v>
@@ -19125,7 +19125,7 @@
         <v>3</v>
       </c>
       <c r="O283" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P283" t="n">
         <v>2</v>
@@ -19191,7 +19191,7 @@
         <v>2</v>
       </c>
       <c r="O284" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P284" t="n">
         <v>2</v>
@@ -19206,7 +19206,7 @@
         <v>0</v>
       </c>
       <c r="T284" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="285">
@@ -19257,7 +19257,7 @@
         <v>3</v>
       </c>
       <c r="O285" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="P285" t="n">
         <v>2</v>
@@ -19323,7 +19323,7 @@
         <v>3</v>
       </c>
       <c r="O286" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P286" t="n">
         <v>2</v>
@@ -19389,7 +19389,7 @@
         <v>7</v>
       </c>
       <c r="O287" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P287" t="n">
         <v>1</v>
@@ -19455,7 +19455,7 @@
         <v>1</v>
       </c>
       <c r="O288" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="P288" t="n">
         <v>1</v>
@@ -19521,7 +19521,7 @@
         <v>10</v>
       </c>
       <c r="O289" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="P289" t="n">
         <v>1</v>
@@ -19587,7 +19587,7 @@
         <v>9</v>
       </c>
       <c r="O290" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="P290" t="n">
         <v>1</v>
@@ -19653,7 +19653,7 @@
         <v>3</v>
       </c>
       <c r="O291" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P291" t="n">
         <v>1</v>
@@ -19719,7 +19719,7 @@
         <v>3</v>
       </c>
       <c r="O292" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P292" t="n">
         <v>1</v>
@@ -19785,7 +19785,7 @@
         <v>0</v>
       </c>
       <c r="O293" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P293" t="n">
         <v>1</v>
@@ -19851,7 +19851,7 @@
         <v>2</v>
       </c>
       <c r="O294" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="P294" t="n">
         <v>1</v>
@@ -19917,7 +19917,7 @@
         <v>0</v>
       </c>
       <c r="O295" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="P295" t="n">
         <v>1</v>
@@ -19983,7 +19983,7 @@
         <v>3</v>
       </c>
       <c r="O296" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P296" t="n">
         <v>1</v>
@@ -20049,7 +20049,7 @@
         <v>0</v>
       </c>
       <c r="O297" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="P297" t="n">
         <v>3</v>
@@ -20115,7 +20115,7 @@
         <v>6</v>
       </c>
       <c r="O298" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P298" t="n">
         <v>2</v>
@@ -20181,7 +20181,7 @@
         <v>1</v>
       </c>
       <c r="O299" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P299" t="n">
         <v>1</v>
@@ -20247,7 +20247,7 @@
         <v>3</v>
       </c>
       <c r="O300" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P300" t="n">
         <v>1</v>
@@ -20313,7 +20313,7 @@
         <v>1</v>
       </c>
       <c r="O301" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P301" t="n">
         <v>1</v>
@@ -20379,7 +20379,7 @@
         <v>4</v>
       </c>
       <c r="O302" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="P302" t="n">
         <v>1</v>
@@ -20445,7 +20445,7 @@
         <v>2</v>
       </c>
       <c r="O303" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="P303" t="n">
         <v>1</v>
